--- a/your_stock_example.xlsx
+++ b/your_stock_example.xlsx
@@ -1,25 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srvfilesgva02\users$\rlq\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CCC639-BC8D-4080-952A-8031A54DF7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D42CEE5-3165-4F26-820A-FF8E2BC50624}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>lvmhf</t>
+  </si>
+  <si>
+    <t>nflx</t>
+  </si>
+  <si>
+    <t>aapl</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>ticker</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>louis vuitton moet hennessy</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,7 +132,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +144,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -144,6 +191,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -179,6 +243,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -330,13 +411,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB569348-63DC-4847-9EBB-50FB43417BF1}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/your_stock_example.xlsx
+++ b/your_stock_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srvfilesgva02\users$\rlq\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronan\OneDrive\Documents\perso\Mygreenstocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CCC639-BC8D-4080-952A-8031A54DF7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED150C36-1831-43D4-8AAC-0B22002DD11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D42CEE5-3165-4F26-820A-FF8E2BC50624}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3D42CEE5-3165-4F26-820A-FF8E2BC50624}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,33 +34,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>aapl</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>ticker</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>NFLX</t>
+  </si>
   <si>
     <t>lvmhf</t>
-  </si>
-  <si>
-    <t>nflx</t>
-  </si>
-  <si>
-    <t>aapl</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>ticker</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Netflix</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>louis vuitton moet hennessy</t>
   </si>
 </sst>
 </file>
@@ -415,56 +412,53 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/your_stock_example.xlsx
+++ b/your_stock_example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronan\OneDrive\Documents\perso\Mygreenstocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED150C36-1831-43D4-8AAC-0B22002DD11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381BB4A8-F954-4B55-A75E-C2FB2B6B8A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3D42CEE5-3165-4F26-820A-FF8E2BC50624}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>aapl</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>lvmhf</t>
+  </si>
+  <si>
+    <t>nflx</t>
   </si>
 </sst>
 </file>
@@ -409,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB569348-63DC-4847-9EBB-50FB43417BF1}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -461,6 +464,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/your_stock_example.xlsx
+++ b/your_stock_example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronan\OneDrive\Documents\perso\Mygreenstocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://be4you-my.sharepoint.com/personal/ronan_letilly_bearingpoint_com/Documents/Documents/Mygreenstocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381BB4A8-F954-4B55-A75E-C2FB2B6B8A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{381BB4A8-F954-4B55-A75E-C2FB2B6B8A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04278DFF-D93B-4560-B831-1D57450F8A61}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3D42CEE5-3165-4F26-820A-FF8E2BC50624}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="14400" windowHeight="7270" xr2:uid="{3D42CEE5-3165-4F26-820A-FF8E2BC50624}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>aapl</t>
   </si>
@@ -57,10 +57,7 @@
     <t>NFLX</t>
   </si>
   <si>
-    <t>lvmhf</t>
-  </si>
-  <si>
-    <t>nflx</t>
+    <t>mc.pa</t>
   </si>
 </sst>
 </file>
@@ -113,6 +110,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -412,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB569348-63DC-4847-9EBB-50FB43417BF1}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -464,14 +465,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/your_stock_example.xlsx
+++ b/your_stock_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://be4you-my.sharepoint.com/personal/ronan_letilly_bearingpoint_com/Documents/Documents/Mygreenstocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{381BB4A8-F954-4B55-A75E-C2FB2B6B8A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04278DFF-D93B-4560-B831-1D57450F8A61}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{381BB4A8-F954-4B55-A75E-C2FB2B6B8A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DBBBD5E-3852-4202-958E-114251612221}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="1440" windowWidth="14400" windowHeight="7270" xr2:uid="{3D42CEE5-3165-4F26-820A-FF8E2BC50624}"/>
   </bookViews>
@@ -57,7 +57,7 @@
     <t>NFLX</t>
   </si>
   <si>
-    <t>mc.pa</t>
+    <t>LVMHF</t>
   </si>
 </sst>
 </file>
